--- a/data/bioassay_3_nutrients.xlsx
+++ b/data/bioassay_3_nutrients.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B982515-2B37-46A9-9C9A-950799584CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE91176E-1F2F-4107-82A8-18973B3333E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EAB37A28-4337-41D5-B28A-2760311F21F6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{EAB37A28-4337-41D5-B28A-2760311F21F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -137,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C78D2C58-19B4-4BE6-8AB4-8B0B0C3FDB76}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{ADD3C476-8853-4565-9402-7354BA86BB97}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{9E488990-295E-42C1-BE4B-966BC87347BF}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{29FBE348-4E63-4501-939C-91CA55B04E0C}">
       <text>
         <r>
           <rPr>
@@ -309,12 +309,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,7 +631,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" activeCellId="2" sqref="I6:I9 I14:I17 I22:I25"/>
+      <selection activeCell="C1" sqref="C1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>0.10432514670723754</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -686,10 +685,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="3">
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="H2" s="3">
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="I2" s="3" t="e">
         <v>#DIV/0!</v>
@@ -706,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.12171267115844382</v>
+        <v>0.3997144896502498</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -715,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="G3" s="3">
-        <v>9.0322580645161285E-2</v>
+        <v>0.3997144896502498</v>
       </c>
       <c r="H3" s="3">
-        <v>9.0322580645161285E-2</v>
+        <v>0.3997144896502498</v>
       </c>
       <c r="I3" s="3" t="e">
         <v>#DIV/0!</v>
@@ -735,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>0.10649858726363834</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -744,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="3">
-        <v>7.9032258064516123E-2</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="H4" s="3">
-        <v>7.9032258064516123E-2</v>
+        <v>0.34975017844396861</v>
       </c>
       <c r="I4" s="3" t="e">
         <v>#DIV/0!</v>
@@ -764,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>0.11519234948924148</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -773,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="G5" s="3">
-        <v>8.5483870967741932E-2</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="H5" s="3">
-        <v>8.5483870967741932E-2</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="I5" s="3" t="e">
         <v>#DIV/0!</v>
@@ -793,21 +792,21 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.10215170615083678</v>
+        <v>0.33547466095645967</v>
       </c>
       <c r="E6">
-        <v>0.17615971814445094</v>
+        <v>0.21413276231263384</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>7.5806451612903225E-2</v>
+        <v>0.33547466095645967</v>
       </c>
       <c r="H6">
-        <v>0.2519661697573542</v>
-      </c>
-      <c r="I6" s="4" t="e">
+        <v>0.54960742326909351</v>
+      </c>
+      <c r="I6" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -822,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.9978265594435997E-2</v>
+        <v>0.32833690221270517</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -831,12 +830,12 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.4193548387096769E-2</v>
+        <v>0.32833690221270517</v>
       </c>
       <c r="H7">
-        <v>7.4193548387096769E-2</v>
-      </c>
-      <c r="I7" s="4" t="e">
+        <v>0.32833690221270517</v>
+      </c>
+      <c r="I7" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -851,22 +850,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.13257987394044776</v>
+        <v>0.43540328336902218</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.70548594292934619</v>
+        <v>2.1633839199225058</v>
       </c>
       <c r="G8">
-        <v>9.838709677419355E-2</v>
+        <v>0.43540328336902218</v>
       </c>
       <c r="H8">
-        <v>9.838709677419355E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>0.13946003851709193</v>
+        <v>0.43540328336902218</v>
+      </c>
+      <c r="I8">
+        <v>0.20126029381997934</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -880,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.10432514670723754</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -889,12 +888,12 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="H9">
-        <v>7.7419354838709667E-2</v>
-      </c>
-      <c r="I9" s="4" t="e">
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="I9" t="e">
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -906,10 +905,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="3">
-        <v>0.70956297371391708</v>
+        <v>3.1406138472519625</v>
       </c>
       <c r="D10" s="3">
-        <v>0.12823299282764616</v>
+        <v>0.42112776588151318</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -918,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>0.80483870967741933</v>
+        <v>3.5617416131334756</v>
       </c>
       <c r="H10" s="3">
-        <v>0.80483870967741933</v>
+        <v>3.5617416131334756</v>
       </c>
       <c r="I10" s="3" t="e">
         <v>#DIV/0!</v>
@@ -935,22 +934,22 @@
         <v>4</v>
       </c>
       <c r="C11" s="3">
-        <v>0.6773101112723755</v>
+        <v>2.9978586723768736</v>
       </c>
       <c r="D11" s="3">
-        <v>0.12171267115844382</v>
+        <v>0.3997144896502498</v>
       </c>
       <c r="E11" s="3">
-        <v>5.8719906048150326E-2</v>
+        <v>7.1377587437544618E-2</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>0.76774193548387093</v>
+        <v>3.3975731620271237</v>
       </c>
       <c r="H11" s="3">
-        <v>0.82646184153202129</v>
+        <v>3.4689507494646681</v>
       </c>
       <c r="I11" s="3" t="e">
         <v>#DIV/0!</v>
@@ -964,10 +963,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3">
-        <v>0.49991936784389612</v>
+        <v>2.2127052105638829</v>
       </c>
       <c r="D12" s="3">
-        <v>0.12388611171484459</v>
+        <v>0.4068522483940043</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
@@ -976,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>0.59193548387096773</v>
+        <v>2.6195574589578872</v>
       </c>
       <c r="H12" s="3">
-        <v>0.59193548387096773</v>
+        <v>2.6195574589578872</v>
       </c>
       <c r="I12" s="3" t="e">
         <v>#DIV/0!</v>
@@ -993,22 +992,22 @@
         <v>6</v>
       </c>
       <c r="C13" s="3">
-        <v>0.43541364296081281</v>
+        <v>1.9271948608137046</v>
       </c>
       <c r="D13" s="3">
-        <v>0.11736579004564227</v>
+        <v>0.38543897216274092</v>
       </c>
       <c r="E13" s="3">
-        <v>8.9254257193188486</v>
+        <v>10.84939329050678</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="3">
-        <v>0.52258064516129032</v>
+        <v>2.3126338329764455</v>
       </c>
       <c r="H13" s="3">
-        <v>9.4480063644801398</v>
+        <v>13.162027123483226</v>
       </c>
       <c r="I13" s="3" t="e">
         <v>#DIV/0!</v>
@@ -1025,22 +1024,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.563138448163444E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.3267347583447404</v>
+        <v>4.0684533419438162</v>
       </c>
       <c r="G14">
-        <v>7.0967741935483872E-2</v>
+        <v>0.31406138472519635</v>
       </c>
       <c r="H14">
-        <v>7.0967741935483872E-2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>5.34905273937532E-2</v>
+        <v>0.31406138472519635</v>
+      </c>
+      <c r="I14">
+        <v>7.7194294324915327E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -1054,22 +1053,22 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.10432514670723754</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.3477940402232285</v>
+        <v>4.1330319664191153</v>
       </c>
       <c r="G15">
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="H15">
-        <v>7.7419354838709667E-2</v>
-      </c>
-      <c r="I15" s="4">
-        <v>5.7441532258064504E-2</v>
+        <v>0.34261241970021411</v>
+      </c>
+      <c r="I15">
+        <v>8.289614561027836E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -1083,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.10867202782003912</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.3162051174054965</v>
+        <v>4.0361640297061676</v>
       </c>
       <c r="G16">
-        <v>8.0645161290322578E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="H16">
-        <v>8.0645161290322578E-2</v>
-      </c>
-      <c r="I16" s="4">
-        <v>6.1270967741935481E-2</v>
+        <v>0.35688793718772305</v>
+      </c>
+      <c r="I16">
+        <v>8.8422555317630255E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1112,22 +1111,22 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.11084546837643991</v>
+        <v>0.36402569593147754</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.2846161945877645</v>
+        <v>3.939296092993219</v>
       </c>
       <c r="G17">
-        <v>8.2258064516129034E-2</v>
+        <v>0.36402569593147754</v>
       </c>
       <c r="H17">
-        <v>8.2258064516129034E-2</v>
-      </c>
-      <c r="I17" s="4">
-        <v>6.4033183500793234E-2</v>
+        <v>0.36402569593147754</v>
+      </c>
+      <c r="I17">
+        <v>9.240881805735951E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1141,22 +1140,22 @@
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>0.14562051727885245</v>
+        <v>0.47822983583154893</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>5.7702432347056973</v>
+        <v>17.694543106231841</v>
       </c>
       <c r="G18" s="3">
-        <v>0.10806451612903227</v>
+        <v>0.47822983583154893</v>
       </c>
       <c r="H18" s="3">
-        <v>0.10806451612903227</v>
+        <v>0.47822983583154893</v>
       </c>
       <c r="I18" s="3">
-        <v>1.8727896161996702E-2</v>
+        <v>2.7026967181939903E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1170,22 +1169,22 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>0.1369267550532493</v>
+        <v>0.44967880085653106</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>5.8650100031588925</v>
+        <v>17.985146916370685</v>
       </c>
       <c r="G19" s="3">
-        <v>0.10161290322580645</v>
+        <v>0.44967880085653106</v>
       </c>
       <c r="H19" s="3">
-        <v>0.10161290322580645</v>
+        <v>0.44967880085653106</v>
       </c>
       <c r="I19" s="3">
-        <v>1.7325273643365956E-2</v>
+        <v>2.5002787185864926E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1199,22 +1198,22 @@
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>0.10867202782003912</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>5.9071285669158682</v>
+        <v>18.114304165321283</v>
       </c>
       <c r="G20" s="3">
-        <v>8.0645161290322578E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="H20" s="3">
-        <v>8.0645161290322578E-2</v>
+        <v>0.35688793718772305</v>
       </c>
       <c r="I20" s="3">
-        <v>1.3652176413087228E-2</v>
+        <v>1.970199539162884E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1228,22 +1227,22 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>0.10432514670723754</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>6.1071917447615034</v>
+        <v>18.727801097836615</v>
       </c>
       <c r="G21" s="3">
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="H21" s="3">
-        <v>7.7419354838709667E-2</v>
+        <v>0.34261241970021411</v>
       </c>
       <c r="I21" s="3">
-        <v>1.2676751946607341E-2</v>
+        <v>1.8294321789854538E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1257,22 +1256,22 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.13040643338404695</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.64230809729388227</v>
+        <v>1.9696480464966095</v>
       </c>
       <c r="G22">
-        <v>9.6774193548387094E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="H22">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.15066631411951348</v>
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="I22">
+        <v>0.21743251307614</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1286,22 +1285,22 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.13910019560965009</v>
+        <v>0.4568165596002855</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.62124881541539434</v>
+        <v>1.9050694220213109</v>
       </c>
       <c r="G23">
-        <v>0.1032258064516129</v>
+        <v>0.4568165596002855</v>
       </c>
       <c r="H23">
-        <v>0.1032258064516129</v>
-      </c>
-      <c r="I23" s="4">
-        <v>0.16615855658829962</v>
+        <v>0.4568165596002855</v>
+      </c>
+      <c r="I23">
+        <v>0.23978998052238715</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1315,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.13040643338404695</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7791934295040539</v>
+        <v>2.3894091055860511</v>
       </c>
       <c r="G24">
-        <v>9.6774193548387094E-2</v>
+        <v>0.42826552462526768</v>
       </c>
       <c r="H24">
-        <v>9.6774193548387094E-2</v>
-      </c>
-      <c r="I24" s="4">
-        <v>0.12419790758500436</v>
+        <v>0.42826552462526768</v>
+      </c>
+      <c r="I24">
+        <v>0.1792349094276289</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
@@ -1344,22 +1343,22 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.12388611171484459</v>
+        <v>0.4068522483940043</v>
       </c>
       <c r="E25">
-        <v>0.41103934233705225</v>
+        <v>0.49964311206281231</v>
       </c>
       <c r="F25">
-        <v>0.72654522480783412</v>
+        <v>2.2279625443978048</v>
       </c>
       <c r="G25">
-        <v>9.1935483870967741E-2</v>
+        <v>0.4068522483940043</v>
       </c>
       <c r="H25">
-        <v>0.50297482620802003</v>
-      </c>
-      <c r="I25" s="4">
-        <v>0.69228288760834289</v>
+        <v>0.90649536045681667</v>
+      </c>
+      <c r="I25">
+        <v>0.40687190309199428</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1373,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>9.7804825038035212E-2</v>
+        <v>0.32119914346895073</v>
       </c>
       <c r="E26" s="3">
-        <v>2.5836758661186141</v>
+        <v>3.1406138472519625</v>
       </c>
       <c r="F26" s="3">
-        <v>5.6228282615562817</v>
+        <v>17.242492734904751</v>
       </c>
       <c r="G26" s="3">
-        <v>7.2580645161290314E-2</v>
+        <v>0.32119914346895073</v>
       </c>
       <c r="H26" s="3">
-        <v>2.6562565112799046</v>
+        <v>3.4618129907209134</v>
       </c>
       <c r="I26" s="3">
-        <v>0.47240576943118445</v>
+        <v>0.20077218787008738</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1402,22 +1401,22 @@
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>0.11519234948924148</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>5.5175318521638408</v>
+        <v>16.919599612528256</v>
       </c>
       <c r="G27" s="3">
-        <v>8.5483870967741932E-2</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="H27" s="3">
-        <v>8.5483870967741932E-2</v>
+        <v>0.37830121341898648</v>
       </c>
       <c r="I27" s="3">
-        <v>1.5493135927111549E-2</v>
+        <v>2.2358756831271011E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1431,22 +1430,22 @@
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <v>0.13475331449684849</v>
+        <v>0.44254104211277656</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>4.2013267347583456</v>
+        <v>12.883435582822088</v>
       </c>
       <c r="G28" s="3">
-        <v>9.9999999999999992E-2</v>
+        <v>0.44254104211277656</v>
       </c>
       <c r="H28" s="3">
-        <v>9.9999999999999992E-2</v>
+        <v>0.44254104211277656</v>
       </c>
       <c r="I28" s="3">
-        <v>2.3802005012531321E-2</v>
+        <v>3.4349614221134556E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1460,22 +1459,22 @@
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>0.14127363616605085</v>
+        <v>0.46395431834404</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>4.1065599663051486</v>
+        <v>12.592831772683242</v>
       </c>
       <c r="G29" s="3">
-        <v>0.10483870967741934</v>
+        <v>0.46395431834404</v>
       </c>
       <c r="H29" s="3">
-        <v>0.10483870967741934</v>
+        <v>0.46395431834404</v>
       </c>
       <c r="I29" s="3">
-        <v>2.5529569892473118E-2</v>
+        <v>3.6842731382345943E-2</v>
       </c>
     </row>
   </sheetData>
